--- a/Product Master Sample.xlsx
+++ b/Product Master Sample.xlsx
@@ -131,26 +131,6 @@
       <top style="thin">
         <color rgb="FF0000FF"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0000FF"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF0000FF"/>
       </bottom>
@@ -169,11 +149,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0000FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -217,11 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,14 +837,14 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col width="20.6640625" customWidth="1" style="3" min="1" max="25"/>
-    <col width="20.6640625" customWidth="1" style="3" min="26" max="16384"/>
+    <col width="20.6640625" customWidth="1" style="3" min="1" max="26"/>
+    <col width="20.6640625" customWidth="1" style="3" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -988,37 +985,39 @@
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>14.3136</t>
+          <t>14.3138</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>7189</t>
+          <t>8777</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>prod_02bff8b7</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="inlineStr"/>
+          <t>prod_f0c3b101</t>
+        </is>
+      </c>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>Test Product Description</t>
+        </is>
+      </c>
       <c r="J2" s="7" t="inlineStr">
         <is>
-          <t>Test Product Description</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" s="7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pkt.</t>
         </is>
       </c>
       <c r="L2" s="7" t="n"/>
       <c r="M2" s="7" t="n"/>
       <c r="N2" s="7" t="n"/>
-      <c r="O2" s="7" t="inlineStr">
-        <is>
-          <t>Pkt.</t>
-        </is>
+      <c r="O2" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="P2" s="7" t="n"/>
       <c r="Q2" s="7" t="n"/>
@@ -1028,11 +1027,7 @@
       <c r="U2" s="7" t="n"/>
       <c r="V2" s="7" t="n"/>
       <c r="W2" s="7" t="n"/>
-      <c r="X2" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="X2" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1881,9 +1876,9 @@
       <c r="B25" s="16" t="n"/>
       <c r="C25" s="18" t="n"/>
       <c r="D25" s="18" t="n"/>
-      <c r="E25" s="19" t="n"/>
+      <c r="E25" s="1" t="n"/>
       <c r="F25" s="16" t="n"/>
-      <c r="G25" s="19" t="n"/>
+      <c r="G25" s="1" t="n"/>
       <c r="H25" s="18" t="n"/>
     </row>
     <row r="26" ht="60" customFormat="1" customHeight="1" s="10">
@@ -1900,22 +1895,22 @@
     </row>
     <row r="27" ht="45" customFormat="1" customHeight="1" s="9">
       <c r="A27" s="18" t="n"/>
-      <c r="B27" s="20" t="n"/>
-      <c r="C27" s="20" t="n"/>
-      <c r="D27" s="20" t="n"/>
-      <c r="E27" s="20" t="n"/>
-      <c r="F27" s="20" t="n"/>
-      <c r="G27" s="20" t="n"/>
-      <c r="H27" s="21" t="n"/>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="19" t="n"/>
+      <c r="D27" s="19" t="n"/>
+      <c r="E27" s="19" t="n"/>
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="19" t="n"/>
+      <c r="H27" s="20" t="n"/>
     </row>
     <row r="29" ht="49.95" customFormat="1" customHeight="1" s="9">
       <c r="A29" s="18" t="n"/>
       <c r="B29" s="18" t="n"/>
       <c r="C29" s="18" t="n"/>
       <c r="D29" s="18" t="n"/>
-      <c r="E29" s="19" t="n"/>
+      <c r="E29" s="1" t="n"/>
       <c r="F29" s="18" t="n"/>
-      <c r="G29" s="19" t="n"/>
+      <c r="G29" s="1" t="n"/>
       <c r="H29" s="18" t="n"/>
     </row>
   </sheetData>

--- a/Product Master Sample.xlsx
+++ b/Product Master Sample.xlsx
@@ -985,17 +985,17 @@
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>14.3138</t>
+          <t>14.3139</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>8777</t>
+          <t>1488</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>prod_f0c3b101</t>
+          <t>prod_0eff3883</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">

--- a/Product Master Sample.xlsx
+++ b/Product Master Sample.xlsx
@@ -985,17 +985,17 @@
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>14.3139</t>
+          <t>14.3140</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>1488</t>
+          <t>7769</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>prod_0eff3883</t>
+          <t>prod_55393ea1</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">

--- a/Product Master Sample.xlsx
+++ b/Product Master Sample.xlsx
@@ -985,17 +985,17 @@
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>14.3140</t>
+          <t>14.3142</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>7769</t>
+          <t>8393</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>prod_55393ea1</t>
+          <t>prod_206dbdad</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">

--- a/Product Master Sample.xlsx
+++ b/Product Master Sample.xlsx
@@ -985,17 +985,17 @@
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="inlineStr">
         <is>
-          <t>14.3142</t>
+          <t>14.3152</t>
         </is>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
-          <t>8393</t>
+          <t>7873</t>
         </is>
       </c>
       <c r="H2" s="7" t="inlineStr">
         <is>
-          <t>prod_206dbdad</t>
+          <t>prod_5e1ad2d5</t>
         </is>
       </c>
       <c r="I2" s="7" t="inlineStr">
